--- a/NCHS Weather Sensor Data_New.xlsx
+++ b/NCHS Weather Sensor Data_New.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Wind Dir</t>
   </si>
   <si>
+    <t>Wind Dir (Degrees)</t>
+  </si>
+  <si>
     <t>mote3</t>
   </si>
   <si>
@@ -65,13 +68,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -93,22 +93,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -335,6 +336,7 @@
     <col customWidth="1" min="8" max="8" width="12.43"/>
     <col customWidth="1" min="9" max="9" width="16.43"/>
     <col customWidth="1" min="10" max="10" width="8.43"/>
+    <col customWidth="1" min="11" max="11" width="16.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -368,13 +370,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44420.409307118054</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>52.0</v>
@@ -400,13 +405,17 @@
       <c r="J2" s="4">
         <v>8.0</v>
       </c>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:K123" si="1">IFS(B2="mote1",IFS(J2=0,"N/A", J2=1,290, J2=2,335, J2=3,20, J2=4, 65, J2=5,110, J2=6,165, J2=7,200, J2=8,245),B2="mote2",IFS(J2=0,"N/A", J2=1,255, J2=2,300, J2=3,345, J2=4,30, J2=5,75, J2=6,130, J2=7,165, J2=8,210),B2="mote3",IFS(J2=0,"N/A", J2=1,270, J2=2,315, J2=3,0, J2=4,45, J2=5,90, J2=6,145, J2=7,180, J2=8,225),B2="mote4",IFS(J2=0,"N/A", J2=1,85, J2=2,130, J2=3,175, J2=4,220, J2=5,265, J2=6,320, J2=7,355, J2=8,40),B2="mote5",IFS(J2=0,"N/A", J2=1,100, J2=2,145, J2=3,190, J2=4,235, J2=5,280, J2=6,335, J2=7,10, J2=8,55))</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44420.41516534722</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>185.0</v>
@@ -432,13 +441,17 @@
       <c r="J3" s="4">
         <v>5.0</v>
       </c>
+      <c r="K3" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>44420.42253454861</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>35.0</v>
@@ -464,13 +477,17 @@
       <c r="J4" s="4">
         <v>4.0</v>
       </c>
+      <c r="K4" s="5">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44420.453210694446</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>16.0</v>
@@ -496,13 +513,17 @@
       <c r="J5" s="4">
         <v>8.0</v>
       </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44420.45635155092</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <v>42.0</v>
@@ -528,13 +549,17 @@
       <c r="J6" s="4">
         <v>5.0</v>
       </c>
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>44420.505877083335</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>28.0</v>
@@ -560,13 +585,17 @@
       <c r="J7" s="4">
         <v>3.0</v>
       </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>44420.61989137731</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="4">
         <v>14.0</v>
@@ -592,13 +621,17 @@
       <c r="J8" s="4">
         <v>1.0</v>
       </c>
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>44420.74266635417</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>28.0</v>
@@ -624,13 +657,17 @@
       <c r="J9" s="4">
         <v>7.0</v>
       </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>44420.82600539352</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>14.0</v>
@@ -656,13 +693,17 @@
       <c r="J10" s="4">
         <v>7.0</v>
       </c>
+      <c r="K10" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>44420.8318597801</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>12.0</v>
@@ -688,13 +729,17 @@
       <c r="J11" s="4">
         <v>7.0</v>
       </c>
+      <c r="K11" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>44420.87304517361</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>11.0</v>
@@ -720,13 +765,17 @@
       <c r="J12" s="4">
         <v>5.0</v>
       </c>
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>44421.12305898148</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="4">
         <v>11.0</v>
@@ -752,13 +801,17 @@
       <c r="J13" s="4">
         <v>5.0</v>
       </c>
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>44421.17257909723</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>9.0</v>
@@ -784,13 +837,17 @@
       <c r="J14" s="4">
         <v>4.0</v>
       </c>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>44421.25591810185</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>11.0</v>
@@ -816,13 +873,17 @@
       <c r="J15" s="4">
         <v>1.0</v>
       </c>
+      <c r="K15" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>44421.28659334491</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="4">
         <v>11.0</v>
@@ -848,13 +909,17 @@
       <c r="J16" s="4">
         <v>1.0</v>
       </c>
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>44421.3699318287</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <v>13.0</v>
@@ -880,13 +945,17 @@
       <c r="J17" s="4">
         <v>7.0</v>
       </c>
+      <c r="K17" s="5">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>44421.498560092594</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>195.0</v>
@@ -912,13 +981,17 @@
       <c r="J18" s="4">
         <v>0.0</v>
       </c>
+      <c r="K18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>44421.539748668976</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="4">
         <v>43.0</v>
@@ -944,13 +1017,17 @@
       <c r="J19" s="4">
         <v>0.0</v>
       </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>44421.58189746528</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>89.0</v>
@@ -976,13 +1053,17 @@
       <c r="J20" s="4">
         <v>6.0</v>
       </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>44421.83928417824</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>12.0</v>
@@ -1008,13 +1089,17 @@
       <c r="J21" s="4">
         <v>2.0</v>
       </c>
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>44421.92262222222</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>10.0</v>
@@ -1040,13 +1125,17 @@
       <c r="J22" s="4">
         <v>5.0</v>
       </c>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>44421.95330121528</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="4">
         <v>12.0</v>
@@ -1072,13 +1161,17 @@
       <c r="J23" s="4">
         <v>8.0</v>
       </c>
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>44422.036639502316</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C24" s="4">
         <v>13.0</v>
@@ -1104,13 +1197,17 @@
       <c r="J24" s="4">
         <v>2.0</v>
       </c>
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>44422.076083356485</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C25" s="4">
         <v>12.0</v>
@@ -1136,13 +1233,17 @@
       <c r="J25" s="4">
         <v>7.0</v>
       </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>44422.08929689815</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>9.0</v>
@@ -1168,13 +1269,17 @@
       <c r="J26" s="4">
         <v>4.0</v>
       </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>44422.15942221065</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="4">
         <v>10.0</v>
@@ -1200,13 +1305,17 @@
       <c r="J27" s="4">
         <v>7.0</v>
       </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>44422.16526311343</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>11.0</v>
@@ -1232,13 +1341,17 @@
       <c r="J28" s="4">
         <v>5.0</v>
       </c>
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>44422.20331599537</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="4">
         <v>11.0</v>
@@ -1264,13 +1377,17 @@
       <c r="J29" s="4">
         <v>1.0</v>
       </c>
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>44422.20645225694</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <v>11.0</v>
@@ -1296,13 +1413,17 @@
       <c r="J30" s="4">
         <v>5.0</v>
       </c>
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>44422.28979108796</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C31" s="4">
         <v>11.0</v>
@@ -1328,13 +1449,17 @@
       <c r="J31" s="4">
         <v>6.0</v>
       </c>
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>44422.41527744213</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>117.0</v>
@@ -1360,13 +1485,17 @@
       <c r="J32" s="4">
         <v>5.0</v>
       </c>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>44422.50598789351</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="4">
         <v>17.0</v>
@@ -1392,13 +1521,17 @@
       <c r="J33" s="4">
         <v>1.0</v>
       </c>
+      <c r="K33" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>44422.62000928241</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C34" s="4">
         <v>15.0</v>
@@ -1424,13 +1557,17 @@
       <c r="J34" s="4">
         <v>8.0</v>
       </c>
+      <c r="K34" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>44422.74279318287</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>10</v>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="4">
         <v>14.0</v>
@@ -1456,13 +1593,17 @@
       <c r="J35" s="4">
         <v>8.0</v>
       </c>
+      <c r="K35" s="5">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>44422.75600188658</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C36" s="4">
         <v>12.0</v>
@@ -1488,13 +1629,17 @@
       <c r="J36" s="4">
         <v>7.0</v>
       </c>
+      <c r="K36" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>44422.82613173611</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>10</v>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="4">
         <v>10.0</v>
@@ -1520,13 +1665,17 @@
       <c r="J37" s="4">
         <v>7.0</v>
       </c>
+      <c r="K37" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>44422.83196833333</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C38" s="4">
         <v>13.0</v>
@@ -1552,13 +1701,17 @@
       <c r="J38" s="4">
         <v>5.0</v>
       </c>
+      <c r="K38" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>44422.87315673611</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>14</v>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C39" s="4">
         <v>11.0</v>
@@ -1584,13 +1737,17 @@
       <c r="J39" s="4">
         <v>5.0</v>
       </c>
+      <c r="K39" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>44422.91530638889</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C40" s="4">
         <v>11.0</v>
@@ -1616,13 +1773,17 @@
       <c r="J40" s="4">
         <v>5.0</v>
       </c>
+      <c r="K40" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>44423.08198354166</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C41" s="4">
         <v>13.0</v>
@@ -1648,13 +1809,17 @@
       <c r="J41" s="4">
         <v>1.0</v>
       </c>
+      <c r="K41" s="5">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>44423.12316753472</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>14</v>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C42" s="4">
         <v>12.0</v>
@@ -1680,13 +1845,17 @@
       <c r="J42" s="4">
         <v>6.0</v>
       </c>
+      <c r="K42" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>44423.17268996528</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C43" s="4">
         <v>10.0</v>
@@ -1712,13 +1881,17 @@
       <c r="J43" s="4">
         <v>2.0</v>
       </c>
+      <c r="K43" s="5">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>44423.2867153125</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>13</v>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C44" s="4">
         <v>12.0</v>
@@ -1744,13 +1917,17 @@
       <c r="J44" s="4">
         <v>2.0</v>
       </c>
+      <c r="K44" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44423.37005358796</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>13</v>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C45" s="4">
         <v>12.0</v>
@@ -1776,13 +1953,17 @@
       <c r="J45" s="4">
         <v>8.0</v>
       </c>
+      <c r="K45" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>44423.409500486116</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>10</v>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C46" s="4">
         <v>55.0</v>
@@ -1808,13 +1989,17 @@
       <c r="J46" s="4">
         <v>1.0</v>
       </c>
+      <c r="K46" s="5">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>44423.42278486111</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C47" s="4">
         <v>54.0</v>
@@ -1840,13 +2025,17 @@
       <c r="J47" s="4">
         <v>5.0</v>
       </c>
+      <c r="K47" s="5">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>44423.49867364584</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>11</v>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C48" s="4">
         <v>203.0</v>
@@ -1872,13 +2061,17 @@
       <c r="J48" s="4">
         <v>1.0</v>
       </c>
+      <c r="K48" s="5">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>44423.50604429399</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C49" s="4">
         <v>25.0</v>
@@ -1904,13 +2097,17 @@
       <c r="J49" s="4">
         <v>4.0</v>
       </c>
+      <c r="K49" s="5">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>44423.536731608794</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>13</v>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C50" s="4">
         <v>12.0</v>
@@ -1936,13 +2133,17 @@
       <c r="J50" s="4">
         <v>8.0</v>
       </c>
+      <c r="K50" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>44423.53985581019</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>14</v>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C51" s="4">
         <v>52.0</v>
@@ -1968,13 +2169,17 @@
       <c r="J51" s="4">
         <v>4.0</v>
       </c>
+      <c r="K51" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>44423.67280256945</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C52" s="4">
         <v>17.0</v>
@@ -2000,13 +2205,17 @@
       <c r="J52" s="4">
         <v>0.0</v>
       </c>
+      <c r="K52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>44423.748688252315</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>11</v>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C53" s="4">
         <v>55.0</v>
@@ -2032,13 +2241,17 @@
       <c r="J53" s="4">
         <v>5.0</v>
       </c>
+      <c r="K53" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>44423.92273520833</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C54" s="4">
         <v>10.0</v>
@@ -2064,13 +2277,17 @@
       <c r="J54" s="4">
         <v>4.0</v>
       </c>
+      <c r="K54" s="5">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>44423.95342489584</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>13</v>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C55" s="4">
         <v>12.0</v>
@@ -2096,13 +2313,17 @@
       <c r="J55" s="4">
         <v>8.0</v>
       </c>
+      <c r="K55" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>44424.00607293981</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>12</v>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C56" s="4">
         <v>12.0</v>
@@ -2128,13 +2349,17 @@
       <c r="J56" s="4">
         <v>3.0</v>
       </c>
+      <c r="K56" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>44424.03692537037</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C57" s="4">
         <v>12.0</v>
@@ -2160,13 +2385,17 @@
       <c r="J57" s="4">
         <v>8.0</v>
       </c>
+      <c r="K57" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>44424.07621185185</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>10</v>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C58" s="4">
         <v>9.0</v>
@@ -2192,13 +2421,17 @@
       <c r="J58" s="4">
         <v>6.0</v>
       </c>
+      <c r="K58" s="5">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>44424.16537768519</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>11</v>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C59" s="4">
         <v>10.0</v>
@@ -2224,13 +2457,17 @@
       <c r="J59" s="4">
         <v>5.0</v>
       </c>
+      <c r="K59" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>44424.17282872685</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C60" s="4">
         <v>9.0</v>
@@ -2256,13 +2493,17 @@
       <c r="J60" s="4">
         <v>1.0</v>
       </c>
+      <c r="K60" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>44424.203520625</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>13</v>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C61" s="4">
         <v>12.0</v>
@@ -2288,13 +2529,17 @@
       <c r="J61" s="4">
         <v>8.0</v>
       </c>
+      <c r="K61" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>44424.20656090278</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>14</v>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C62" s="4">
         <v>10.0</v>
@@ -2320,13 +2565,17 @@
       <c r="J62" s="4">
         <v>1.0</v>
       </c>
+      <c r="K62" s="5">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>44424.24871540509</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>11</v>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C63" s="4">
         <v>10.0</v>
@@ -2352,13 +2601,17 @@
       <c r="J63" s="4">
         <v>5.0</v>
       </c>
+      <c r="K63" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>44424.256085810186</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C64" s="4">
         <v>11.0</v>
@@ -2384,13 +2637,17 @@
       <c r="J64" s="4">
         <v>7.0</v>
       </c>
+      <c r="K64" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>44424.2898989699</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>14</v>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C65" s="4">
         <v>13.0</v>
@@ -2416,13 +2673,17 @@
       <c r="J65" s="4">
         <v>7.0</v>
       </c>
+      <c r="K65" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>44424.422842326385</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>43.0</v>
@@ -2448,13 +2709,17 @@
       <c r="J66" s="4">
         <v>1.0</v>
       </c>
+      <c r="K66" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>44424.453454699076</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>13</v>
+      <c r="B67" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C67" s="4">
         <v>12.0</v>
@@ -2480,13 +2745,17 @@
       <c r="J67" s="4">
         <v>8.0</v>
       </c>
+      <c r="K67" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>44424.45657471065</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>14</v>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C68" s="4">
         <v>62.0</v>
@@ -2512,13 +2781,17 @@
       <c r="J68" s="4">
         <v>6.0</v>
       </c>
+      <c r="K68" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>44424.50618118056</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>12</v>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C69" s="4">
         <v>23.0</v>
@@ -2544,13 +2817,17 @@
       <c r="J69" s="4">
         <v>3.0</v>
       </c>
+      <c r="K69" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>44424.53679353009</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>13</v>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C70" s="4">
         <v>12.0</v>
@@ -2576,13 +2853,17 @@
       <c r="J70" s="4">
         <v>8.0</v>
       </c>
+      <c r="K70" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>44424.70355232639</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>13</v>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C71" s="4">
         <v>12.0</v>
@@ -2608,13 +2889,17 @@
       <c r="J71" s="4">
         <v>8.0</v>
       </c>
+      <c r="K71" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>44424.832082430556</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>11</v>
+      <c r="B72" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C72" s="4">
         <v>12.0</v>
@@ -2640,13 +2925,17 @@
       <c r="J72" s="4">
         <v>5.0</v>
       </c>
+      <c r="K72" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>44424.915420509264</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>11</v>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C73" s="4">
         <v>12.0</v>
@@ -2672,13 +2961,17 @@
       <c r="J73" s="4">
         <v>4.0</v>
       </c>
+      <c r="K73" s="5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>44425.08217731482</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>11</v>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C74" s="4">
         <v>12.0</v>
@@ -2704,13 +2997,17 @@
       <c r="J74" s="4">
         <v>6.0</v>
       </c>
+      <c r="K74" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>44425.16551519676</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>11</v>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C75" s="4">
         <v>13.0</v>
@@ -2736,13 +3033,17 @@
       <c r="J75" s="4">
         <v>5.0</v>
       </c>
+      <c r="K75" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>44425.3321118287</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>11</v>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C76" s="4">
         <v>17.0</v>
@@ -2768,13 +3069,17 @@
       <c r="J76" s="4">
         <v>5.0</v>
       </c>
+      <c r="K76" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>44425.58220478009</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>11</v>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C77" s="4">
         <v>183.0</v>
@@ -2800,13 +3105,17 @@
       <c r="J77" s="4">
         <v>4.0</v>
       </c>
+      <c r="K77" s="5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>44425.665461944445</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>11</v>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C78" s="4">
         <v>103.0</v>
@@ -2832,13 +3141,17 @@
       <c r="J78" s="4">
         <v>7.0</v>
       </c>
+      <c r="K78" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>44425.8322190162</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>11</v>
+      <c r="B79" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C79" s="4">
         <v>10.0</v>
@@ -2864,13 +3177,17 @@
       <c r="J79" s="4">
         <v>5.0</v>
       </c>
+      <c r="K79" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>44425.915556782405</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>11</v>
+      <c r="B80" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C80" s="4">
         <v>11.0</v>
@@ -2896,13 +3213,17 @@
       <c r="J80" s="4">
         <v>5.0</v>
       </c>
+      <c r="K80" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>44426.08215144676</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>11</v>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C81" s="4">
         <v>11.0</v>
@@ -2928,13 +3249,17 @@
       <c r="J81" s="4">
         <v>5.0</v>
       </c>
+      <c r="K81" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>44426.16548938658</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>11</v>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C82" s="4">
         <v>12.0</v>
@@ -2960,13 +3285,17 @@
       <c r="J82" s="4">
         <v>5.0</v>
       </c>
+      <c r="K82" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>44426.248989375</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>11</v>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C83" s="4">
         <v>13.0</v>
@@ -2992,13 +3321,17 @@
       <c r="J83" s="4">
         <v>5.0</v>
       </c>
+      <c r="K83" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>44426.33216505787</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>11</v>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C84" s="4">
         <v>17.0</v>
@@ -3024,13 +3357,17 @@
       <c r="J84" s="4">
         <v>5.0</v>
       </c>
+      <c r="K84" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>44426.498921921295</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>11</v>
+      <c r="B85" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C85" s="4">
         <v>87.0</v>
@@ -3056,13 +3393,17 @@
       <c r="J85" s="4">
         <v>5.0</v>
       </c>
+      <c r="K85" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>44426.748854826394</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>11</v>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C86" s="4">
         <v>32.0</v>
@@ -3088,13 +3429,17 @@
       <c r="J86" s="4">
         <v>5.0</v>
       </c>
+      <c r="K86" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>44426.83219288195</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>11</v>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C87" s="4">
         <v>12.0</v>
@@ -3120,13 +3465,17 @@
       <c r="J87" s="4">
         <v>5.0</v>
       </c>
+      <c r="K87" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>44426.99894942129</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>11</v>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C88" s="4">
         <v>11.0</v>
@@ -3152,13 +3501,17 @@
       <c r="J88" s="4">
         <v>5.0</v>
       </c>
+      <c r="K88" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>44427.248882037034</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>11</v>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C89" s="4">
         <v>11.0</v>
@@ -3184,13 +3537,17 @@
       <c r="J89" s="4">
         <v>5.0</v>
       </c>
+      <c r="K89" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>44427.332301041664</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>11</v>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C90" s="4">
         <v>23.0</v>
@@ -3216,13 +3573,17 @@
       <c r="J90" s="4">
         <v>5.0</v>
       </c>
+      <c r="K90" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>44427.498895868055</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>11</v>
+      <c r="B91" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C91" s="4">
         <v>124.0</v>
@@ -3248,13 +3609,17 @@
       <c r="J91" s="4">
         <v>5.0</v>
       </c>
+      <c r="K91" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>44427.66573476852</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>11</v>
+      <c r="B92" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C92" s="4">
         <v>122.0</v>
@@ -3280,13 +3645,17 @@
       <c r="J92" s="4">
         <v>5.0</v>
       </c>
+      <c r="K92" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>44427.74891052084</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>11</v>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C93" s="4">
         <v>63.0</v>
@@ -3312,13 +3681,17 @@
       <c r="J93" s="4">
         <v>5.0</v>
       </c>
+      <c r="K93" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>44427.91566787037</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>11</v>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C94" s="4">
         <v>13.0</v>
@@ -3344,13 +3717,17 @@
       <c r="J94" s="4">
         <v>5.0</v>
       </c>
+      <c r="K94" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>44427.99908674769</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>11</v>
+      <c r="B95" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C95" s="4">
         <v>12.0</v>
@@ -3376,13 +3753,17 @@
       <c r="J95" s="4">
         <v>5.0</v>
       </c>
+      <c r="K95" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>44428.165681342594</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>11</v>
+      <c r="B96" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C96" s="4">
         <v>11.0</v>
@@ -3408,13 +3789,17 @@
       <c r="J96" s="4">
         <v>5.0</v>
       </c>
+      <c r="K96" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>44428.24901922454</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>11</v>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C97" s="4">
         <v>12.0</v>
@@ -3440,13 +3825,17 @@
       <c r="J97" s="4">
         <v>5.0</v>
       </c>
+      <c r="K97" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>44428.41561498842</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>11</v>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C98" s="4">
         <v>30.0</v>
@@ -3472,13 +3861,17 @@
       <c r="J98" s="4">
         <v>1.0</v>
       </c>
+      <c r="K98" s="5">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>44428.498951574074</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>11</v>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C99" s="4">
         <v>62.0</v>
@@ -3504,13 +3897,17 @@
       <c r="J99" s="4">
         <v>5.0</v>
       </c>
+      <c r="K99" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>44428.58245141203</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>11</v>
+      <c r="B100" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C100" s="4">
         <v>101.0</v>
@@ -3536,13 +3933,17 @@
       <c r="J100" s="4">
         <v>1.0</v>
       </c>
+      <c r="K100" s="5">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>44428.665627118055</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>11</v>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C101" s="4">
         <v>65.0</v>
@@ -3568,13 +3969,17 @@
       <c r="J101" s="4">
         <v>5.0</v>
       </c>
+      <c r="K101" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>44428.83246533565</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>11</v>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C102" s="4">
         <v>11.0</v>
@@ -3600,13 +4005,17 @@
       <c r="J102" s="4">
         <v>2.0</v>
       </c>
+      <c r="K102" s="5">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>44429.08231650463</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>11</v>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C103" s="4">
         <v>10.0</v>
@@ -3632,13 +4041,17 @@
       <c r="J103" s="4">
         <v>5.0</v>
       </c>
+      <c r="K103" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>44429.16581679398</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>11</v>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C104" s="4">
         <v>12.0</v>
@@ -3664,13 +4077,17 @@
       <c r="J104" s="4">
         <v>5.0</v>
       </c>
+      <c r="K104" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>44429.332411435185</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>11</v>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C105" s="4">
         <v>35.0</v>
@@ -3696,13 +4113,17 @@
       <c r="J105" s="4">
         <v>5.0</v>
       </c>
+      <c r="K105" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>44429.41574951389</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>11</v>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C106" s="4">
         <v>102.0</v>
@@ -3728,13 +4149,17 @@
       <c r="J106" s="4">
         <v>5.0</v>
       </c>
+      <c r="K106" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>44429.58234489583</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>11</v>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C107" s="4">
         <v>154.0</v>
@@ -3760,13 +4185,17 @@
       <c r="J107" s="4">
         <v>5.0</v>
       </c>
+      <c r="K107" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>44429.66568306713</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>11</v>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C108" s="4">
         <v>112.0</v>
@@ -3792,13 +4221,17 @@
       <c r="J108" s="4">
         <v>7.0</v>
       </c>
+      <c r="K108" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>44429.749183252316</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>11</v>
+      <c r="B109" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C109" s="4">
         <v>52.0</v>
@@ -3824,13 +4257,17 @@
       <c r="J109" s="4">
         <v>0.0</v>
       </c>
+      <c r="K109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>44429.8323590162</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>11</v>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C110" s="4">
         <v>13.0</v>
@@ -3856,13 +4293,17 @@
       <c r="J110" s="4">
         <v>5.0</v>
       </c>
+      <c r="K110" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>44429.99911590278</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>11</v>
+      <c r="B111" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C111" s="4">
         <v>11.0</v>
@@ -3888,13 +4329,17 @@
       <c r="J111" s="4">
         <v>0.0</v>
       </c>
+      <c r="K111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>44430.08245383102</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>11</v>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C112" s="4">
         <v>11.0</v>
@@ -3920,13 +4365,17 @@
       <c r="J112" s="4">
         <v>5.0</v>
       </c>
+      <c r="K112" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>44430.24904855324</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>11</v>
+      <c r="B113" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C113" s="4">
         <v>11.0</v>
@@ -3952,13 +4401,17 @@
       <c r="J113" s="4">
         <v>6.0</v>
       </c>
+      <c r="K113" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>44430.582482488426</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>11</v>
+      <c r="B114" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C114" s="4">
         <v>53.0</v>
@@ -3984,13 +4437,17 @@
       <c r="J114" s="4">
         <v>6.0</v>
       </c>
+      <c r="K114" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>44430.749077581015</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>11</v>
+      <c r="B115" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C115" s="4">
         <v>25.0</v>
@@ -4016,13 +4473,17 @@
       <c r="J115" s="4">
         <v>6.0</v>
       </c>
+      <c r="K115" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>44430.83241482639</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>11</v>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C116" s="4">
         <v>11.0</v>
@@ -4048,13 +4509,17 @@
       <c r="J116" s="4">
         <v>6.0</v>
       </c>
+      <c r="K116" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>44430.999171469906</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>11</v>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C117" s="4">
         <v>11.0</v>
@@ -4080,13 +4545,17 @@
       <c r="J117" s="4">
         <v>5.0</v>
       </c>
+      <c r="K117" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>44431.2491040162</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>11</v>
+      <c r="B118" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C118" s="4">
         <v>12.0</v>
@@ -4112,13 +4581,17 @@
       <c r="J118" s="4">
         <v>5.0</v>
       </c>
+      <c r="K118" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>44431.41594193287</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>11</v>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C119" s="4">
         <v>131.0</v>
@@ -4144,13 +4617,17 @@
       <c r="J119" s="4">
         <v>5.0</v>
       </c>
+      <c r="K119" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>44431.49928046296</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>11</v>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C120" s="4">
         <v>189.0</v>
@@ -4176,13 +4653,17 @@
       <c r="J120" s="4">
         <v>5.0</v>
       </c>
+      <c r="K120" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>44431.665875624996</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>11</v>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C121" s="4">
         <v>120.0</v>
@@ -4208,13 +4689,17 @@
       <c r="J121" s="4">
         <v>5.0</v>
       </c>
+      <c r="K121" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>44431.9158087963</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>11</v>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C122" s="4">
         <v>10.0</v>
@@ -4240,13 +4725,17 @@
       <c r="J122" s="4">
         <v>5.0</v>
       </c>
+      <c r="K122" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>44431.99914679398</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>11</v>
+      <c r="B123" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C123" s="4">
         <v>10.0</v>
@@ -4271,6 +4760,10 @@
       </c>
       <c r="J123" s="4">
         <v>5.0</v>
+      </c>
+      <c r="K123" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
